--- a/LCD/tables/production_classification.xlsx
+++ b/LCD/tables/production_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D723A78F-C30A-4326-814E-B607DB4FA666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC8284-6DAA-4331-BB66-B0B9A0C10DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
   <si>
     <t>property1</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>2.2</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DEA3D7-4032-4CD5-B66B-A0FCA924FD17}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -648,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,6 +1143,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LCD/tables/production_classification.xlsx
+++ b/LCD/tables/production_classification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC8284-6DAA-4331-BB66-B0B9A0C10DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCCD57-4512-46F9-A04F-36CD7D975C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,19 +668,19 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,16 +691,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,16 +731,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,13 +891,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -911,16 +911,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
